--- a/biology/Médecine/Charles_Fernet/Charles_Fernet.xlsx
+++ b/biology/Médecine/Charles_Fernet/Charles_Fernet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Alexis Fernet, est un médecin  et écrivain français, professeur à la Faculté de médecine de Paris, né le 8 février 1838 à Paris (12e arrondissement ancien), et mort le 18 avril 1919 (à 81 ans) dans cette même ville dans le 16e arrondissement[1]. Il était le père du vice-amiral Jean Fernet (1881-1953) et de l'écrivain et pilote de chasse André Fernet (1886-1916).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Alexis Fernet, est un médecin  et écrivain français, professeur à la Faculté de médecine de Paris, né le 8 février 1838 à Paris (12e arrondissement ancien), et mort le 18 avril 1919 (à 81 ans) dans cette même ville dans le 16e arrondissement. Il était le père du vice-amiral Jean Fernet (1881-1953) et de l'écrivain et pilote de chasse André Fernet (1886-1916).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Fils de Pierre François Florent Fernet et de Victoire Désirée Simonot. Son frère Jacques-Émile Fernet sera inspecteur général de l'instruction publique.
 1860 - 1866 : interne des hôpitaux de Paris
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Du Rhumatisme aigu et de ses diverses manifestations, 1865 sur Gallica
 De la Pneumonie aiguë et de la névrite du pneumo-gastrique, pathogénie de la pneumonie, 1876 lire en ligne sur Gallica
@@ -584,9 +600,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Légion d'honneur[2]. Chevalier (N°30.809 décret du 12 juillet 1884).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Légion d'honneur. Chevalier (N°30.809 décret du 12 juillet 1884).</t>
         </is>
       </c>
     </row>
